--- a/Data Sources.xlsx
+++ b/Data Sources.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Learning Files\OneDrive - University of Leeds\College\Study in UoL\Semester 2\GEOG5990M Programming for Geographical Information Analysis-Core Skills\Assignment final project\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D12DDAD8-3624-410B-9DC0-DFF5FFDE1A33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,12 +24,114 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+  <si>
+    <t>No.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>data file name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>source</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://data.police.uk/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>download link</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>note</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.nomisweb.co.uk/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>too large to contain so need download?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://data.police.uk/data/fetch/98ab9afd-6990-433a-b607-91f5367ef2e8/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.nomisweb.co.uk/query/construct/summary.asp?mode=construct&amp;version=0&amp;dataset=2039</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://geoportal.statistics.gov.uk/datasets/bb427d36197443959de8a1462c8f1c55_0/explore</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://geoportal.statistics.gov.uk/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lower_layer_Super_Output_Areas_2021_EW_BFC_V8_8154990398368723939.zip</t>
+  </si>
+  <si>
+    <t>shp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>csnsus2021_TS019 - Migrant Indicator .csv</t>
+  </si>
+  <si>
+    <t>this zip file's original name from download site is too long, might cause windows file exploer broken. Rename it before directly open it or during running code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -46,14 +154,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +441,117 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="64.5" customWidth="1"/>
+    <col min="5" max="5" width="33.1640625" customWidth="1"/>
+    <col min="6" max="6" width="17.83203125" customWidth="1"/>
+    <col min="7" max="7" width="20.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{C4ADCC1D-58B8-4BF5-B52D-FFDDC5817A78}"/>
+    <hyperlink ref="F3" r:id="rId2" xr:uid="{A2B8A351-E6B9-420D-8B70-91B274F50D15}"/>
+    <hyperlink ref="G2" r:id="rId3" xr:uid="{8FA3C397-FB7F-4882-B56F-94EA980F5C89}"/>
+    <hyperlink ref="G3" r:id="rId4" xr:uid="{ADDB4921-FF52-4C83-B171-3F1E3642AECD}"/>
+    <hyperlink ref="G4" r:id="rId5" xr:uid="{DA07CE19-3304-49BB-87C5-51726BC6639F}"/>
+    <hyperlink ref="F4" r:id="rId6" xr:uid="{530EFD44-8ADD-4707-B6DA-6B05582A068D}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Data Sources.xlsx
+++ b/Data Sources.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Learning Files\OneDrive - University of Leeds\College\Study in UoL\Semester 2\GEOG5990M Programming for Geographical Information Analysis-Core Skills\Assignment final project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D12DDAD8-3624-410B-9DC0-DFF5FFDE1A33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61B64873-4471-445F-8777-8281D76DAFBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -106,6 +106,10 @@
   </si>
   <si>
     <t>this zip file's original name from download site is too long, might cause windows file exploer broken. Rename it before directly open it or during running code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">contains the </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -445,7 +449,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -489,8 +493,11 @@
       <c r="C2" t="s">
         <v>18</v>
       </c>
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>5</v>

--- a/Data Sources.xlsx
+++ b/Data Sources.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Learning Files\OneDrive - University of Leeds\College\Study in UoL\Semester 2\GEOG5990M Programming for Geographical Information Analysis-Core Skills\Assignment final project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61B64873-4471-445F-8777-8281D76DAFBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6297A446-9D79-4BFF-8EC7-824ECEC11501}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -102,14 +102,29 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>this table might be update in future, based on the latest branch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>csnsus2021_TS019 - Migrant Indicator .csv</t>
-  </si>
-  <si>
-    <t>this zip file's original name from download site is too long, might cause windows file exploer broken. Rename it before directly open it or during running code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">contains the </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The Topic Summaries 19 Migration Indicator, which includes data from the 2021 UK government census, has been narrowed down to the Leeds range</t>
+  </si>
+  <si>
+    <t>Contains shape files from the UK government regarding the 2021 census of England and Wales</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c3b4b2b813b856dd673e42b11b7438cbdd90a5db.zip</t>
+  </si>
+  <si>
+    <t>Includes street crime data publicly available from the UK police from April to December 2021 in West Yorkshire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>this zip file's original name from download site is too long, might cause windows file exploer broken. Rename it before directly open it or during running code. The download link may not be forever link too.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -162,9 +177,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -446,10 +464,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -490,11 +508,14 @@
       <c r="A2">
         <v>1</v>
       </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
       <c r="C2" t="s">
         <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E2" t="s">
         <v>15</v>
@@ -506,7 +527,7 @@
         <v>11</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -514,13 +535,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
         <v>18</v>
       </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>8</v>
@@ -539,8 +563,11 @@
       <c r="C4" t="s">
         <v>17</v>
       </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>14</v>
@@ -549,7 +576,17 @@
         <v>13</v>
       </c>
     </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A12:C12"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1" xr:uid="{C4ADCC1D-58B8-4BF5-B52D-FFDDC5817A78}"/>
